--- a/Misc/Data/mBasicPH.xlsx
+++ b/Misc/Data/mBasicPH.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sxj477\Documents\GitHub\EnergyEconomicsE2022\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sxj477\Documents\GitHub\EnergyEconomicsE2022\Misc\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17700" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17700" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Log" sheetId="2" r:id="rId1"/>
@@ -829,18 +829,18 @@
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="65.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.84375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="65.84375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>95</v>
       </c>
@@ -848,7 +848,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>97</v>
       </c>
@@ -856,7 +856,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>97</v>
       </c>
@@ -864,7 +864,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>100</v>
       </c>
@@ -872,7 +872,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>100</v>
       </c>
@@ -880,7 +880,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>105</v>
       </c>
@@ -888,7 +888,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>115</v>
       </c>
@@ -896,7 +896,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>117</v>
       </c>
@@ -904,7 +904,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>118</v>
       </c>
@@ -912,7 +912,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -920,7 +920,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -928,7 +928,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -936,7 +936,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -944,7 +944,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>40</v>
       </c>
@@ -952,7 +952,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
         <v>31</v>
       </c>
@@ -963,7 +963,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>43</v>
       </c>
@@ -971,7 +971,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>44</v>
       </c>
@@ -979,7 +979,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>45</v>
       </c>
@@ -987,7 +987,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>46</v>
       </c>
@@ -995,7 +995,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>47</v>
       </c>
@@ -1003,7 +1003,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>48</v>
       </c>
@@ -1011,7 +1011,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>49</v>
       </c>
@@ -1019,7 +1019,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>51</v>
       </c>
@@ -1027,7 +1027,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>53</v>
       </c>
@@ -1035,7 +1035,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>55</v>
       </c>
@@ -1043,7 +1043,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>56</v>
       </c>
@@ -1051,7 +1051,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>57</v>
       </c>
@@ -1059,7 +1059,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>58</v>
       </c>
@@ -1067,7 +1067,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>60</v>
       </c>
@@ -1075,7 +1075,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>62</v>
       </c>
@@ -1083,7 +1083,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>63</v>
       </c>
@@ -1091,7 +1091,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
         <v>71</v>
       </c>
@@ -1100,7 +1100,7 @@
       </c>
       <c r="C34" s="3"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
         <v>73</v>
       </c>
@@ -1109,7 +1109,7 @@
       </c>
       <c r="C35" s="3"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
         <v>75</v>
       </c>
@@ -1117,7 +1117,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
         <v>77</v>
       </c>
@@ -1125,7 +1125,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
         <v>79</v>
       </c>
@@ -1133,7 +1133,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
         <v>80</v>
       </c>
@@ -1141,7 +1141,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
         <v>81</v>
       </c>
@@ -1149,7 +1149,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
         <v>82</v>
       </c>
@@ -1176,20 +1176,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.15234375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.69140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.69140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.3828125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.15234375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.3046875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="24" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>87</v>
       </c>
@@ -1212,7 +1214,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1235,7 +1237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1252,7 +1254,7 @@
         <v>5.7000000000000002E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -1269,7 +1271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>65</v>
       </c>
@@ -1295,23 +1297,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.3046875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.3046875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.53515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.15234375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.84375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.84375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.84375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="31.69140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>132</v>
       </c>
@@ -1343,7 +1345,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>103</v>
       </c>
@@ -1375,7 +1377,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>104</v>
       </c>
@@ -1407,7 +1409,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="C4" t="s">
         <v>103</v>
       </c>
@@ -1427,7 +1429,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="C5" t="s">
         <v>103</v>
       </c>
@@ -1449,7 +1451,7 @@
         <v>9.9999999999999978E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="C6" t="s">
         <v>104</v>
       </c>
@@ -1469,7 +1471,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="C7" t="s">
         <v>104</v>
       </c>
@@ -1489,7 +1491,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="C8" t="s">
         <v>104</v>
       </c>
@@ -1509,7 +1511,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="C9" t="s">
         <v>104</v>
       </c>
@@ -1544,12 +1546,12 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.53515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>142</v>
       </c>
@@ -1563,7 +1565,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>103</v>
       </c>
@@ -1577,7 +1579,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>104</v>
       </c>
@@ -1602,12 +1604,12 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>106</v>
       </c>
@@ -1636,7 +1638,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -1665,7 +1667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -1703,30 +1705,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="37.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.69140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.84375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.53515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.15234375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.15234375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.15234375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="37.3046875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.69140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.15234375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.69140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.53515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.15234375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.69140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.69140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.3828125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
@@ -1773,7 +1775,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>43</v>
       </c>
@@ -1823,7 +1825,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>44</v>
       </c>
@@ -1873,7 +1875,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>45</v>
       </c>
@@ -1923,7 +1925,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>46</v>
       </c>
@@ -1973,7 +1975,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>47</v>
       </c>
@@ -2023,7 +2025,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>48</v>
       </c>
@@ -2073,7 +2075,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>49</v>
       </c>
@@ -2124,7 +2126,7 @@
         <v>-0.2857142857142857</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>51</v>
       </c>
@@ -2175,7 +2177,7 @@
         <v>-0.2857142857142857</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>53</v>
       </c>
@@ -2213,7 +2215,7 @@
         <v>0.19722222222222222</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -2251,7 +2253,7 @@
         <v>1.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>56</v>
       </c>
@@ -2289,7 +2291,7 @@
         <v>8.611111111111111E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>57</v>
       </c>
@@ -2327,7 +2329,7 @@
         <v>0.23888888888888887</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>71</v>
       </c>
@@ -2358,7 +2360,7 @@
         <v>13.888888888888889</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>73</v>
       </c>
@@ -2389,7 +2391,7 @@
         <v>3.1388888888888888</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>79</v>
       </c>
@@ -2420,7 +2422,7 @@
         <v>13.888888888888889</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>80</v>
       </c>
@@ -2451,7 +2453,7 @@
         <v>3.1388888888888888</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.4">
       <c r="H18" t="s">
         <v>71</v>
       </c>
@@ -2466,7 +2468,7 @@
         <v>9.0833333333333339</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.4">
       <c r="H19" t="s">
         <v>73</v>
       </c>
@@ -2481,7 +2483,7 @@
         <v>0.54166666666666663</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.4">
       <c r="H20" t="s">
         <v>75</v>
       </c>
@@ -2496,7 +2498,7 @@
         <v>1.6888888888888887E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.4">
       <c r="H21" t="s">
         <v>77</v>
       </c>
@@ -2511,7 +2513,7 @@
         <v>0.55555555555555558</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.4">
       <c r="H22" t="s">
         <v>79</v>
       </c>
@@ -2526,7 +2528,7 @@
         <v>9.0833333333333339</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.4">
       <c r="H23" t="s">
         <v>80</v>
       </c>
@@ -2541,7 +2543,7 @@
         <v>0.54166666666666663</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.4">
       <c r="H24" t="s">
         <v>81</v>
       </c>
@@ -2556,7 +2558,7 @@
         <v>1.6888888888888887E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.4">
       <c r="H25" t="s">
         <v>82</v>
       </c>
@@ -2585,18 +2587,18 @@
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.42578125" customWidth="1"/>
-    <col min="7" max="7" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.84375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.3046875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.84375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.3046875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.3828125" customWidth="1"/>
+    <col min="7" max="7" width="20.69140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.3828125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -2622,7 +2624,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>43</v>
       </c>
@@ -2648,7 +2650,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>44</v>
       </c>
@@ -2674,7 +2676,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>45</v>
       </c>
@@ -2700,7 +2702,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>46</v>
       </c>
@@ -2726,7 +2728,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>47</v>
       </c>
@@ -2752,7 +2754,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>48</v>
       </c>
@@ -2778,7 +2780,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>49</v>
       </c>
@@ -2804,7 +2806,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>51</v>
       </c>
@@ -2830,7 +2832,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>53</v>
       </c>
@@ -2856,7 +2858,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -2882,7 +2884,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>56</v>
       </c>
@@ -2908,7 +2910,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>57</v>
       </c>
@@ -2934,7 +2936,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>58</v>
       </c>
@@ -2954,7 +2956,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>60</v>
       </c>
@@ -2974,7 +2976,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>62</v>
       </c>
@@ -2994,7 +2996,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>63</v>
       </c>
@@ -3014,7 +3016,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>71</v>
       </c>
@@ -3034,7 +3036,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>73</v>
       </c>
@@ -3054,7 +3056,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>75</v>
       </c>
@@ -3074,7 +3076,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>77</v>
       </c>
@@ -3094,7 +3096,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>79</v>
       </c>
@@ -3114,7 +3116,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>80</v>
       </c>
@@ -3134,7 +3136,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>81</v>
       </c>
@@ -3154,7 +3156,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>82</v>
       </c>
@@ -3185,9 +3187,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>120</v>
       </c>
@@ -3213,7 +3215,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3239,7 +3241,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3265,7 +3267,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3291,7 +3293,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3330,12 +3332,12 @@
       <selection activeCell="P25" sqref="P25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.53515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>130</v>
       </c>
@@ -3343,7 +3345,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>131</v>
       </c>
@@ -3351,7 +3353,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>121</v>
       </c>
